--- a/Code/Results/Cases/Case_4_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.029910172272314</v>
+        <v>1.060590024698926</v>
       </c>
       <c r="D2">
-        <v>1.043785222234473</v>
+        <v>1.060778303270036</v>
       </c>
       <c r="E2">
-        <v>1.045296355237202</v>
+        <v>1.074146206274934</v>
       </c>
       <c r="F2">
-        <v>1.047604878823116</v>
+        <v>1.081241313296882</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.060605825051777</v>
+        <v>1.052663900367918</v>
       </c>
       <c r="J2">
-        <v>1.051231650496303</v>
+        <v>1.065570088629278</v>
       </c>
       <c r="K2">
-        <v>1.054666487068847</v>
+        <v>1.063504157313564</v>
       </c>
       <c r="L2">
-        <v>1.056158747315551</v>
+        <v>1.07683619141211</v>
       </c>
       <c r="M2">
-        <v>1.058438570337351</v>
+        <v>1.083912649957102</v>
       </c>
       <c r="N2">
-        <v>1.018871209831153</v>
+        <v>1.025320154627256</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0364872333147</v>
+        <v>1.061888174758018</v>
       </c>
       <c r="D3">
-        <v>1.048989261655377</v>
+        <v>1.061808859511142</v>
       </c>
       <c r="E3">
-        <v>1.051713369372624</v>
+        <v>1.075470313933804</v>
       </c>
       <c r="F3">
-        <v>1.054601405334139</v>
+        <v>1.082707631296825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063410878024303</v>
+        <v>1.053125302292105</v>
       </c>
       <c r="J3">
-        <v>1.056030334022066</v>
+        <v>1.066520283334186</v>
       </c>
       <c r="K3">
-        <v>1.059031458844557</v>
+        <v>1.064348660370973</v>
       </c>
       <c r="L3">
-        <v>1.061724712421404</v>
+        <v>1.077976123498642</v>
       </c>
       <c r="M3">
-        <v>1.064580251895411</v>
+        <v>1.085195807296432</v>
       </c>
       <c r="N3">
-        <v>1.020673186603787</v>
+        <v>1.02566169062054</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.040625162577017</v>
+        <v>1.062727169861754</v>
       </c>
       <c r="D4">
-        <v>1.052265187411669</v>
+        <v>1.062474763606663</v>
       </c>
       <c r="E4">
-        <v>1.055755767276254</v>
+        <v>1.076326481620599</v>
       </c>
       <c r="F4">
-        <v>1.059010694758699</v>
+        <v>1.083656074218143</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065163491195481</v>
+        <v>1.05342202551552</v>
       </c>
       <c r="J4">
-        <v>1.059043821985507</v>
+        <v>1.067133619399415</v>
       </c>
       <c r="K4">
-        <v>1.0617712288465</v>
+        <v>1.064893569850249</v>
       </c>
       <c r="L4">
-        <v>1.065224803453996</v>
+        <v>1.078712567576565</v>
       </c>
       <c r="M4">
-        <v>1.06844549257557</v>
+        <v>1.086025209102087</v>
       </c>
       <c r="N4">
-        <v>1.021802213450468</v>
+        <v>1.025881605000359</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042337951380933</v>
+        <v>1.063079649562544</v>
       </c>
       <c r="D5">
-        <v>1.053621540074489</v>
+        <v>1.062754488660868</v>
       </c>
       <c r="E5">
-        <v>1.057430216123211</v>
+        <v>1.076686270458313</v>
       </c>
       <c r="F5">
-        <v>1.060837578029695</v>
+        <v>1.084054717347069</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.065885977394185</v>
+        <v>1.053546330447778</v>
       </c>
       <c r="J5">
-        <v>1.060289797359869</v>
+        <v>1.067391109072801</v>
       </c>
       <c r="K5">
-        <v>1.062903693044702</v>
+        <v>1.065122283669155</v>
       </c>
       <c r="L5">
-        <v>1.066673128592631</v>
+        <v>1.079021892652779</v>
       </c>
       <c r="M5">
-        <v>1.070045675627969</v>
+        <v>1.086373681437482</v>
       </c>
       <c r="N5">
-        <v>1.022268378932195</v>
+        <v>1.02597379893786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042624004146317</v>
+        <v>1.06313881886788</v>
       </c>
       <c r="D6">
-        <v>1.053848084120755</v>
+        <v>1.062801442846632</v>
       </c>
       <c r="E6">
-        <v>1.057709935475794</v>
+        <v>1.07674667225613</v>
       </c>
       <c r="F6">
-        <v>1.061142789447126</v>
+        <v>1.084121646591251</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.066006464357184</v>
+        <v>1.053567176186708</v>
       </c>
       <c r="J6">
-        <v>1.060497805340757</v>
+        <v>1.067434321889016</v>
       </c>
       <c r="K6">
-        <v>1.063092730774016</v>
+        <v>1.065160664333181</v>
       </c>
       <c r="L6">
-        <v>1.066914985987308</v>
+        <v>1.079073813614629</v>
       </c>
       <c r="M6">
-        <v>1.070312937007303</v>
+        <v>1.086432179387368</v>
       </c>
       <c r="N6">
-        <v>1.022346163410571</v>
+        <v>1.025989263602133</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.040648152436061</v>
+        <v>1.062731880626229</v>
       </c>
       <c r="D7">
-        <v>1.052283391651278</v>
+        <v>1.062478502171609</v>
       </c>
       <c r="E7">
-        <v>1.055778237804944</v>
+        <v>1.076331289697707</v>
       </c>
       <c r="F7">
-        <v>1.059035209058134</v>
+        <v>1.083661401224699</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.065173200521753</v>
+        <v>1.053423688201102</v>
       </c>
       <c r="J7">
-        <v>1.059060551566652</v>
+        <v>1.067137061387168</v>
       </c>
       <c r="K7">
-        <v>1.061786435679939</v>
+        <v>1.064896627370808</v>
       </c>
       <c r="L7">
-        <v>1.065244245372182</v>
+        <v>1.07871670187337</v>
       </c>
       <c r="M7">
-        <v>1.068466969968095</v>
+        <v>1.086029866219383</v>
       </c>
       <c r="N7">
-        <v>1.021808475212357</v>
+        <v>1.025882837913012</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.03215821692648</v>
+        <v>1.061028949167522</v>
       </c>
       <c r="D8">
-        <v>1.045563537289225</v>
+        <v>1.061126779767938</v>
       </c>
       <c r="E8">
-        <v>1.047488585136658</v>
+        <v>1.074593825144412</v>
       </c>
       <c r="F8">
-        <v>1.049994714912005</v>
+        <v>1.08173694023728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061567134045855</v>
+        <v>1.052820214223725</v>
       </c>
       <c r="J8">
-        <v>1.052872995469702</v>
+        <v>1.065891524558308</v>
       </c>
       <c r="K8">
-        <v>1.05615976271649</v>
+        <v>1.063789881647677</v>
       </c>
       <c r="L8">
-        <v>1.058061536337735</v>
+        <v>1.077221680887792</v>
       </c>
       <c r="M8">
-        <v>1.060537525135191</v>
+        <v>1.084346485086298</v>
       </c>
       <c r="N8">
-        <v>1.019488085843781</v>
+        <v>1.025435803018751</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.016225116140699</v>
+        <v>1.058020353852263</v>
       </c>
       <c r="D9">
-        <v>1.032970711707926</v>
+        <v>1.058737590022768</v>
       </c>
       <c r="E9">
-        <v>1.031974943691017</v>
+        <v>1.07152727331446</v>
       </c>
       <c r="F9">
-        <v>1.033089572665872</v>
+        <v>1.078342808600583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054703199093628</v>
+        <v>1.051742687460914</v>
       </c>
       <c r="J9">
-        <v>1.041217652248026</v>
+        <v>1.063685074755951</v>
       </c>
       <c r="K9">
-        <v>1.045550588528095</v>
+        <v>1.061827736259041</v>
       </c>
       <c r="L9">
-        <v>1.044569708819198</v>
+        <v>1.074578151596086</v>
       </c>
       <c r="M9">
-        <v>1.045667674765327</v>
+        <v>1.081373175859852</v>
       </c>
       <c r="N9">
-        <v>1.015097712565546</v>
+        <v>1.02463973565859</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004840208495714</v>
+        <v>1.056009098404024</v>
       </c>
       <c r="D10">
-        <v>1.023990631583707</v>
+        <v>1.057139725858444</v>
       </c>
       <c r="E10">
-        <v>1.020922362433535</v>
+        <v>1.069479345261979</v>
       </c>
       <c r="F10">
-        <v>1.021053244590109</v>
+        <v>1.076077756534028</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049735971715137</v>
+        <v>1.051014728012661</v>
       </c>
       <c r="J10">
-        <v>1.032863095984339</v>
+        <v>1.062206074426997</v>
       </c>
       <c r="K10">
-        <v>1.037939829182559</v>
+        <v>1.060511456873412</v>
       </c>
       <c r="L10">
-        <v>1.034923860394643</v>
+        <v>1.072809441293093</v>
       </c>
       <c r="M10">
-        <v>1.03505250329934</v>
+        <v>1.079386018772014</v>
       </c>
       <c r="N10">
-        <v>1.011939542991479</v>
+        <v>1.024103354979277</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9997014505666043</v>
+        <v>1.055136830860946</v>
       </c>
       <c r="D11">
-        <v>1.019943012058837</v>
+        <v>1.056446590642913</v>
       </c>
       <c r="E11">
-        <v>1.015942092703196</v>
+        <v>1.06859166822972</v>
       </c>
       <c r="F11">
-        <v>1.015631084724368</v>
+        <v>1.075096353818934</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047479794026388</v>
+        <v>1.05069720990746</v>
       </c>
       <c r="J11">
-        <v>1.029086654820803</v>
+        <v>1.061563700873484</v>
       </c>
       <c r="K11">
-        <v>1.034498383815401</v>
+        <v>1.059939514308247</v>
       </c>
       <c r="L11">
-        <v>1.030569499209437</v>
+        <v>1.072042010200772</v>
       </c>
       <c r="M11">
-        <v>1.030264121707193</v>
+        <v>1.078524325020247</v>
       </c>
       <c r="N11">
-        <v>1.010509851117889</v>
+        <v>1.023869736770973</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9977585604868897</v>
+        <v>1.054812619069554</v>
       </c>
       <c r="D12">
-        <v>1.018413650745958</v>
+        <v>1.056188938135335</v>
       </c>
       <c r="E12">
-        <v>1.014060470502882</v>
+        <v>1.068261803628373</v>
       </c>
       <c r="F12">
-        <v>1.013582676998165</v>
+        <v>1.074731718273999</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046624710266993</v>
+        <v>1.050578920772237</v>
       </c>
       <c r="J12">
-        <v>1.027658085930165</v>
+        <v>1.061324796843227</v>
       </c>
       <c r="K12">
-        <v>1.03319637726704</v>
+        <v>1.059726767779517</v>
       </c>
       <c r="L12">
-        <v>1.028923162351417</v>
+        <v>1.071756711994314</v>
       </c>
       <c r="M12">
-        <v>1.028454200164327</v>
+        <v>1.078204061929647</v>
       </c>
       <c r="N12">
-        <v>1.009968748281334</v>
+        <v>1.023782754642839</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9981769085825817</v>
+        <v>1.054882173314834</v>
       </c>
       <c r="D13">
-        <v>1.018742910053756</v>
+        <v>1.056244214182764</v>
       </c>
       <c r="E13">
-        <v>1.014465564286266</v>
+        <v>1.068332567203845</v>
       </c>
       <c r="F13">
-        <v>1.014023671121918</v>
+        <v>1.074809938402489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046808920719221</v>
+        <v>1.050604310011371</v>
       </c>
       <c r="J13">
-        <v>1.02796572173305</v>
+        <v>1.061376056112149</v>
       </c>
       <c r="K13">
-        <v>1.033476765366741</v>
+        <v>1.059772416334449</v>
       </c>
       <c r="L13">
-        <v>1.029277655404633</v>
+        <v>1.071817920368137</v>
       </c>
       <c r="M13">
-        <v>1.028843893805571</v>
+        <v>1.078272768205527</v>
       </c>
       <c r="N13">
-        <v>1.010085283822016</v>
+        <v>1.023801421944396</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9995415637395</v>
+        <v>1.055110035785042</v>
       </c>
       <c r="D14">
-        <v>1.019817135093554</v>
+        <v>1.056425296927581</v>
       </c>
       <c r="E14">
-        <v>1.015787220081672</v>
+        <v>1.068564404441185</v>
       </c>
       <c r="F14">
-        <v>1.015462481167819</v>
+        <v>1.075066214981216</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04740946764544</v>
+        <v>1.050687439218246</v>
       </c>
       <c r="J14">
-        <v>1.028969107975033</v>
+        <v>1.061543959091482</v>
       </c>
       <c r="K14">
-        <v>1.034391254034258</v>
+        <v>1.059921934785895</v>
       </c>
       <c r="L14">
-        <v>1.03043401663377</v>
+        <v>1.072018432287136</v>
       </c>
       <c r="M14">
-        <v>1.030115166901902</v>
+        <v>1.078497855912902</v>
       </c>
       <c r="N14">
-        <v>1.010465332831998</v>
+        <v>1.023862551009586</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000377763764638</v>
+        <v>1.055250401016062</v>
       </c>
       <c r="D15">
-        <v>1.02047550612726</v>
+        <v>1.056536842538523</v>
       </c>
       <c r="E15">
-        <v>1.016597251221249</v>
+        <v>1.068707228070839</v>
       </c>
       <c r="F15">
-        <v>1.016344335847222</v>
+        <v>1.075224102166111</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047777187909855</v>
+        <v>1.050738611584516</v>
       </c>
       <c r="J15">
-        <v>1.029583841945985</v>
+        <v>1.061647370067322</v>
       </c>
       <c r="K15">
-        <v>1.03495150352292</v>
+        <v>1.060014017972808</v>
       </c>
       <c r="L15">
-        <v>1.031142583431241</v>
+        <v>1.072141942341461</v>
       </c>
       <c r="M15">
-        <v>1.030894213519798</v>
+        <v>1.078636514327112</v>
       </c>
       <c r="N15">
-        <v>1.01069813902697</v>
+        <v>1.023900187317574</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005176621841474</v>
+        <v>1.056066958382333</v>
       </c>
       <c r="D16">
-        <v>1.024255741067438</v>
+        <v>1.057185700335952</v>
       </c>
       <c r="E16">
-        <v>1.02124858182634</v>
+        <v>1.069538237849324</v>
       </c>
       <c r="F16">
-        <v>1.021408434202302</v>
+        <v>1.076142875446971</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049883387077022</v>
+        <v>1.05103575185371</v>
       </c>
       <c r="J16">
-        <v>1.033110216436362</v>
+        <v>1.062248665085115</v>
       </c>
       <c r="K16">
-        <v>1.038165004953684</v>
+        <v>1.060549372709686</v>
       </c>
       <c r="L16">
-        <v>1.035208916539938</v>
+        <v>1.072860339744207</v>
       </c>
       <c r="M16">
-        <v>1.035366044356553</v>
+        <v>1.079443179952062</v>
       </c>
       <c r="N16">
-        <v>1.012033058085849</v>
+        <v>1.024118830645252</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008129033196973</v>
+        <v>1.056578789827147</v>
       </c>
       <c r="D17">
-        <v>1.026583036177213</v>
+        <v>1.057592374698114</v>
       </c>
       <c r="E17">
-        <v>1.02411249645418</v>
+        <v>1.070059260986899</v>
       </c>
       <c r="F17">
-        <v>1.024526833545346</v>
+        <v>1.076719027586864</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05117553502862</v>
+        <v>1.05122152093696</v>
       </c>
       <c r="J17">
-        <v>1.035278369413041</v>
+        <v>1.062625314947135</v>
       </c>
       <c r="K17">
-        <v>1.040140487609968</v>
+        <v>1.060884652792968</v>
       </c>
       <c r="L17">
-        <v>1.037710554536659</v>
+        <v>1.073310548471345</v>
       </c>
       <c r="M17">
-        <v>1.038118063856661</v>
+        <v>1.079948843959599</v>
       </c>
       <c r="N17">
-        <v>1.012853293359312</v>
+        <v>1.024255614293931</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00983115764509</v>
+        <v>1.056877199599829</v>
       </c>
       <c r="D18">
-        <v>1.027925294072469</v>
+        <v>1.0578294606545</v>
       </c>
       <c r="E18">
-        <v>1.025764394550516</v>
+        <v>1.070363077442127</v>
       </c>
       <c r="F18">
-        <v>1.026325650960526</v>
+        <v>1.077055027927091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051919148734964</v>
+        <v>1.051329654470964</v>
       </c>
       <c r="J18">
-        <v>1.03652783240572</v>
+        <v>1.062844819917804</v>
       </c>
       <c r="K18">
-        <v>1.041278802702319</v>
+        <v>1.061080024708867</v>
       </c>
       <c r="L18">
-        <v>1.039152742141019</v>
+        <v>1.0735729966404</v>
       </c>
       <c r="M18">
-        <v>1.039704931629954</v>
+        <v>1.080243669770158</v>
       </c>
       <c r="N18">
-        <v>1.013325774894295</v>
+        <v>1.024335266574813</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.010408228944351</v>
+        <v>1.056978927248476</v>
       </c>
       <c r="D19">
-        <v>1.028380445251563</v>
+        <v>1.057910280535986</v>
       </c>
       <c r="E19">
-        <v>1.026324570277857</v>
+        <v>1.070466656306894</v>
       </c>
       <c r="F19">
-        <v>1.026935672284053</v>
+        <v>1.077169585446985</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052171027622122</v>
+        <v>1.051366487549758</v>
       </c>
       <c r="J19">
-        <v>1.036951347516612</v>
+        <v>1.062919633581918</v>
       </c>
       <c r="K19">
-        <v>1.04166462311551</v>
+        <v>1.061146609140005</v>
       </c>
       <c r="L19">
-        <v>1.039641675490606</v>
+        <v>1.073662459215283</v>
       </c>
       <c r="M19">
-        <v>1.040242972292495</v>
+        <v>1.080344177646078</v>
       </c>
       <c r="N19">
-        <v>1.013485890273292</v>
+        <v>1.024362403712006</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.007814351368424</v>
+        <v>1.05652388893857</v>
       </c>
       <c r="D20">
-        <v>1.026334926672717</v>
+        <v>1.057548754859414</v>
       </c>
       <c r="E20">
-        <v>1.023807164068946</v>
+        <v>1.070003369226071</v>
       </c>
       <c r="F20">
-        <v>1.024194356050138</v>
+        <v>1.076657218107465</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051037950142779</v>
+        <v>1.051201612695893</v>
       </c>
       <c r="J20">
-        <v>1.035047331131257</v>
+        <v>1.062584923510749</v>
       </c>
       <c r="K20">
-        <v>1.039929992163096</v>
+        <v>1.060848700224049</v>
       </c>
       <c r="L20">
-        <v>1.037443923703448</v>
+        <v>1.073262260985069</v>
       </c>
       <c r="M20">
-        <v>1.037824711973774</v>
+        <v>1.079894603390952</v>
       </c>
       <c r="N20">
-        <v>1.012765909956192</v>
+        <v>1.024240952294683</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9991406723675521</v>
+        <v>1.055042941884062</v>
       </c>
       <c r="D21">
-        <v>1.019501534478486</v>
+        <v>1.056371977879655</v>
       </c>
       <c r="E21">
-        <v>1.015398922949052</v>
+        <v>1.068496138108687</v>
       </c>
       <c r="F21">
-        <v>1.015039760337145</v>
+        <v>1.074990750691776</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047233102357538</v>
+        <v>1.050662969384295</v>
       </c>
       <c r="J21">
-        <v>1.028674365704018</v>
+        <v>1.06149452410382</v>
       </c>
       <c r="K21">
-        <v>1.034122629462672</v>
+        <v>1.059877913681352</v>
       </c>
       <c r="L21">
-        <v>1.030094315116342</v>
+        <v>1.071959393190221</v>
       </c>
       <c r="M21">
-        <v>1.029741694051596</v>
+        <v>1.078431578525408</v>
       </c>
       <c r="N21">
-        <v>1.010353701453189</v>
+        <v>1.023844555718654</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9934881448110555</v>
+        <v>1.054110577891894</v>
       </c>
       <c r="D22">
-        <v>1.015054132430434</v>
+        <v>1.055630983356001</v>
       </c>
       <c r="E22">
-        <v>1.009927285815031</v>
+        <v>1.067547659011839</v>
       </c>
       <c r="F22">
-        <v>1.009083389669712</v>
+        <v>1.073942401556186</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044741552744435</v>
+        <v>1.050322283965019</v>
       </c>
       <c r="J22">
-        <v>1.024516834526264</v>
+        <v>1.060807221255273</v>
       </c>
       <c r="K22">
-        <v>1.030333148942344</v>
+        <v>1.059265795029911</v>
       </c>
       <c r="L22">
-        <v>1.02530461354689</v>
+        <v>1.071138836901956</v>
       </c>
       <c r="M22">
-        <v>1.024477025231996</v>
+        <v>1.077510605257875</v>
       </c>
       <c r="N22">
-        <v>1.008778480813514</v>
+        <v>1.023594133387215</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9965045204426466</v>
+        <v>1.054604960430724</v>
       </c>
       <c r="D23">
-        <v>1.017426818425591</v>
+        <v>1.056023904786418</v>
       </c>
       <c r="E23">
-        <v>1.012846364670956</v>
+        <v>1.068050545423278</v>
       </c>
       <c r="F23">
-        <v>1.012260995480099</v>
+        <v>1.07449820767419</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046072225461841</v>
+        <v>1.050503079863899</v>
       </c>
       <c r="J23">
-        <v>1.026735812861496</v>
+        <v>1.061171738369132</v>
       </c>
       <c r="K23">
-        <v>1.032355769218414</v>
+        <v>1.059590457402811</v>
       </c>
       <c r="L23">
-        <v>1.027860537402835</v>
+        <v>1.071573962756176</v>
       </c>
       <c r="M23">
-        <v>1.027286131907361</v>
+        <v>1.077998937683806</v>
       </c>
       <c r="N23">
-        <v>1.009619345826754</v>
+        <v>1.023727000441111</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.007956604044007</v>
+        <v>1.056548696697113</v>
       </c>
       <c r="D24">
-        <v>1.026447083547238</v>
+        <v>1.057568465158543</v>
       </c>
       <c r="E24">
-        <v>1.023945187846386</v>
+        <v>1.070028624577134</v>
       </c>
       <c r="F24">
-        <v>1.024344650204316</v>
+        <v>1.076685147334037</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051100149873093</v>
+        <v>1.051210609060243</v>
       </c>
       <c r="J24">
-        <v>1.035151774163349</v>
+        <v>1.062603175244511</v>
       </c>
       <c r="K24">
-        <v>1.040025148974584</v>
+        <v>1.060864946233247</v>
       </c>
       <c r="L24">
-        <v>1.037564454993147</v>
+        <v>1.073284080487813</v>
       </c>
       <c r="M24">
-        <v>1.03795732155166</v>
+        <v>1.079919112737961</v>
       </c>
       <c r="N24">
-        <v>1.012805413082702</v>
+        <v>1.024247577826694</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.020469999979252</v>
+        <v>1.058799101661476</v>
       </c>
       <c r="D25">
-        <v>1.036323024517762</v>
+        <v>1.05935613375236</v>
       </c>
       <c r="E25">
-        <v>1.036102740051247</v>
+        <v>1.072320659272103</v>
       </c>
       <c r="F25">
-        <v>1.037586184916793</v>
+        <v>1.079220656594819</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05654278615402</v>
+        <v>1.052022939450397</v>
       </c>
       <c r="J25">
-        <v>1.044327573376498</v>
+        <v>1.064256896369458</v>
       </c>
       <c r="K25">
-        <v>1.048382475736639</v>
+        <v>1.062336427608576</v>
       </c>
       <c r="L25">
-        <v>1.048165315229821</v>
+        <v>1.075262670785215</v>
       </c>
       <c r="M25">
-        <v>1.049627755025854</v>
+        <v>1.082142701047517</v>
       </c>
       <c r="N25">
-        <v>1.016271224181564</v>
+        <v>1.024846532567328</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_133/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_133/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.060590024698926</v>
+        <v>1.029910172272314</v>
       </c>
       <c r="D2">
-        <v>1.060778303270036</v>
+        <v>1.043785222234473</v>
       </c>
       <c r="E2">
-        <v>1.074146206274934</v>
+        <v>1.045296355237202</v>
       </c>
       <c r="F2">
-        <v>1.081241313296882</v>
+        <v>1.047604878823116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052663900367918</v>
+        <v>1.060605825051777</v>
       </c>
       <c r="J2">
-        <v>1.065570088629278</v>
+        <v>1.051231650496303</v>
       </c>
       <c r="K2">
-        <v>1.063504157313564</v>
+        <v>1.054666487068847</v>
       </c>
       <c r="L2">
-        <v>1.07683619141211</v>
+        <v>1.056158747315551</v>
       </c>
       <c r="M2">
-        <v>1.083912649957102</v>
+        <v>1.058438570337351</v>
       </c>
       <c r="N2">
-        <v>1.025320154627256</v>
+        <v>1.018871209831153</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.061888174758018</v>
+        <v>1.036487233314703</v>
       </c>
       <c r="D3">
-        <v>1.061808859511142</v>
+        <v>1.04898926165538</v>
       </c>
       <c r="E3">
-        <v>1.075470313933804</v>
+        <v>1.051713369372627</v>
       </c>
       <c r="F3">
-        <v>1.082707631296825</v>
+        <v>1.054601405334141</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053125302292105</v>
+        <v>1.063410878024304</v>
       </c>
       <c r="J3">
-        <v>1.066520283334186</v>
+        <v>1.056030334022069</v>
       </c>
       <c r="K3">
-        <v>1.064348660370973</v>
+        <v>1.059031458844559</v>
       </c>
       <c r="L3">
-        <v>1.077976123498642</v>
+        <v>1.061724712421406</v>
       </c>
       <c r="M3">
-        <v>1.085195807296432</v>
+        <v>1.064580251895413</v>
       </c>
       <c r="N3">
-        <v>1.02566169062054</v>
+        <v>1.020673186603788</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.062727169861754</v>
+        <v>1.040625162577015</v>
       </c>
       <c r="D4">
-        <v>1.062474763606663</v>
+        <v>1.052265187411668</v>
       </c>
       <c r="E4">
-        <v>1.076326481620599</v>
+        <v>1.055755767276252</v>
       </c>
       <c r="F4">
-        <v>1.083656074218143</v>
+        <v>1.059010694758698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05342202551552</v>
+        <v>1.06516349119548</v>
       </c>
       <c r="J4">
-        <v>1.067133619399415</v>
+        <v>1.059043821985506</v>
       </c>
       <c r="K4">
-        <v>1.064893569850249</v>
+        <v>1.061771228846499</v>
       </c>
       <c r="L4">
-        <v>1.078712567576565</v>
+        <v>1.065224803453995</v>
       </c>
       <c r="M4">
-        <v>1.086025209102087</v>
+        <v>1.068445492575569</v>
       </c>
       <c r="N4">
-        <v>1.025881605000359</v>
+        <v>1.021802213450468</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063079649562544</v>
+        <v>1.042337951380933</v>
       </c>
       <c r="D5">
-        <v>1.062754488660868</v>
+        <v>1.053621540074489</v>
       </c>
       <c r="E5">
-        <v>1.076686270458313</v>
+        <v>1.057430216123211</v>
       </c>
       <c r="F5">
-        <v>1.084054717347069</v>
+        <v>1.060837578029696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053546330447778</v>
+        <v>1.065885977394185</v>
       </c>
       <c r="J5">
-        <v>1.067391109072801</v>
+        <v>1.060289797359869</v>
       </c>
       <c r="K5">
-        <v>1.065122283669155</v>
+        <v>1.062903693044702</v>
       </c>
       <c r="L5">
-        <v>1.079021892652779</v>
+        <v>1.066673128592631</v>
       </c>
       <c r="M5">
-        <v>1.086373681437482</v>
+        <v>1.070045675627969</v>
       </c>
       <c r="N5">
-        <v>1.02597379893786</v>
+        <v>1.022268378932195</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.06313881886788</v>
+        <v>1.042624004146317</v>
       </c>
       <c r="D6">
-        <v>1.062801442846632</v>
+        <v>1.053848084120754</v>
       </c>
       <c r="E6">
-        <v>1.07674667225613</v>
+        <v>1.057709935475794</v>
       </c>
       <c r="F6">
-        <v>1.084121646591251</v>
+        <v>1.061142789447126</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053567176186708</v>
+        <v>1.066006464357185</v>
       </c>
       <c r="J6">
-        <v>1.067434321889016</v>
+        <v>1.060497805340757</v>
       </c>
       <c r="K6">
-        <v>1.065160664333181</v>
+        <v>1.063092730774016</v>
       </c>
       <c r="L6">
-        <v>1.079073813614629</v>
+        <v>1.066914985987308</v>
       </c>
       <c r="M6">
-        <v>1.086432179387368</v>
+        <v>1.070312937007303</v>
       </c>
       <c r="N6">
-        <v>1.025989263602133</v>
+        <v>1.022346163410571</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.062731880626229</v>
+        <v>1.040648152436061</v>
       </c>
       <c r="D7">
-        <v>1.062478502171609</v>
+        <v>1.052283391651278</v>
       </c>
       <c r="E7">
-        <v>1.076331289697707</v>
+        <v>1.055778237804944</v>
       </c>
       <c r="F7">
-        <v>1.083661401224699</v>
+        <v>1.059035209058134</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053423688201102</v>
+        <v>1.065173200521753</v>
       </c>
       <c r="J7">
-        <v>1.067137061387168</v>
+        <v>1.059060551566652</v>
       </c>
       <c r="K7">
-        <v>1.064896627370808</v>
+        <v>1.061786435679939</v>
       </c>
       <c r="L7">
-        <v>1.07871670187337</v>
+        <v>1.065244245372181</v>
       </c>
       <c r="M7">
-        <v>1.086029866219383</v>
+        <v>1.068466969968095</v>
       </c>
       <c r="N7">
-        <v>1.025882837913012</v>
+        <v>1.021808475212357</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061028949167522</v>
+        <v>1.032158216926482</v>
       </c>
       <c r="D8">
-        <v>1.061126779767938</v>
+        <v>1.045563537289227</v>
       </c>
       <c r="E8">
-        <v>1.074593825144412</v>
+        <v>1.04748858513666</v>
       </c>
       <c r="F8">
-        <v>1.08173694023728</v>
+        <v>1.049994714912007</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052820214223725</v>
+        <v>1.061567134045857</v>
       </c>
       <c r="J8">
-        <v>1.065891524558308</v>
+        <v>1.052872995469704</v>
       </c>
       <c r="K8">
-        <v>1.063789881647677</v>
+        <v>1.056159762716492</v>
       </c>
       <c r="L8">
-        <v>1.077221680887792</v>
+        <v>1.058061536337737</v>
       </c>
       <c r="M8">
-        <v>1.084346485086298</v>
+        <v>1.060537525135193</v>
       </c>
       <c r="N8">
-        <v>1.025435803018751</v>
+        <v>1.019488085843781</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.058020353852263</v>
+        <v>1.0162251161407</v>
       </c>
       <c r="D9">
-        <v>1.058737590022768</v>
+        <v>1.032970711707927</v>
       </c>
       <c r="E9">
-        <v>1.07152727331446</v>
+        <v>1.031974943691018</v>
       </c>
       <c r="F9">
-        <v>1.078342808600583</v>
+        <v>1.033089572665873</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051742687460914</v>
+        <v>1.054703199093629</v>
       </c>
       <c r="J9">
-        <v>1.063685074755951</v>
+        <v>1.041217652248027</v>
       </c>
       <c r="K9">
-        <v>1.061827736259041</v>
+        <v>1.045550588528096</v>
       </c>
       <c r="L9">
-        <v>1.074578151596086</v>
+        <v>1.044569708819199</v>
       </c>
       <c r="M9">
-        <v>1.081373175859852</v>
+        <v>1.045667674765327</v>
       </c>
       <c r="N9">
-        <v>1.02463973565859</v>
+        <v>1.015097712565546</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.056009098404024</v>
+        <v>1.004840208495712</v>
       </c>
       <c r="D10">
-        <v>1.057139725858444</v>
+        <v>1.023990631583706</v>
       </c>
       <c r="E10">
-        <v>1.069479345261979</v>
+        <v>1.020922362433534</v>
       </c>
       <c r="F10">
-        <v>1.076077756534028</v>
+        <v>1.021053244590107</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051014728012661</v>
+        <v>1.049735971715136</v>
       </c>
       <c r="J10">
-        <v>1.062206074426997</v>
+        <v>1.032863095984337</v>
       </c>
       <c r="K10">
-        <v>1.060511456873412</v>
+        <v>1.037939829182558</v>
       </c>
       <c r="L10">
-        <v>1.072809441293093</v>
+        <v>1.034923860394641</v>
       </c>
       <c r="M10">
-        <v>1.079386018772014</v>
+        <v>1.035052503299338</v>
       </c>
       <c r="N10">
-        <v>1.024103354979277</v>
+        <v>1.011939542991479</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.055136830860946</v>
+        <v>0.9997014505666038</v>
       </c>
       <c r="D11">
-        <v>1.056446590642913</v>
+        <v>1.019943012058836</v>
       </c>
       <c r="E11">
-        <v>1.06859166822972</v>
+        <v>1.015942092703195</v>
       </c>
       <c r="F11">
-        <v>1.075096353818934</v>
+        <v>1.015631084724367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05069720990746</v>
+        <v>1.047479794026388</v>
       </c>
       <c r="J11">
-        <v>1.061563700873484</v>
+        <v>1.029086654820803</v>
       </c>
       <c r="K11">
-        <v>1.059939514308247</v>
+        <v>1.0344983838154</v>
       </c>
       <c r="L11">
-        <v>1.072042010200772</v>
+        <v>1.030569499209436</v>
       </c>
       <c r="M11">
-        <v>1.078524325020247</v>
+        <v>1.030264121707193</v>
       </c>
       <c r="N11">
-        <v>1.023869736770973</v>
+        <v>1.010509851117888</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054812619069554</v>
+        <v>0.9977585604868887</v>
       </c>
       <c r="D12">
-        <v>1.056188938135335</v>
+        <v>1.018413650745957</v>
       </c>
       <c r="E12">
-        <v>1.068261803628373</v>
+        <v>1.014060470502881</v>
       </c>
       <c r="F12">
-        <v>1.074731718273999</v>
+        <v>1.013582676998165</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050578920772237</v>
+        <v>1.046624710266991</v>
       </c>
       <c r="J12">
-        <v>1.061324796843227</v>
+        <v>1.027658085930164</v>
       </c>
       <c r="K12">
-        <v>1.059726767779517</v>
+        <v>1.03319637726704</v>
       </c>
       <c r="L12">
-        <v>1.071756711994314</v>
+        <v>1.028923162351416</v>
       </c>
       <c r="M12">
-        <v>1.078204061929647</v>
+        <v>1.028454200164327</v>
       </c>
       <c r="N12">
-        <v>1.023782754642839</v>
+        <v>1.009968748281333</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054882173314834</v>
+        <v>0.9981769085825807</v>
       </c>
       <c r="D13">
-        <v>1.056244214182764</v>
+        <v>1.018742910053755</v>
       </c>
       <c r="E13">
-        <v>1.068332567203845</v>
+        <v>1.014465564286265</v>
       </c>
       <c r="F13">
-        <v>1.074809938402489</v>
+        <v>1.014023671121917</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050604310011371</v>
+        <v>1.04680892071922</v>
       </c>
       <c r="J13">
-        <v>1.061376056112149</v>
+        <v>1.027965721733049</v>
       </c>
       <c r="K13">
-        <v>1.059772416334449</v>
+        <v>1.033476765366739</v>
       </c>
       <c r="L13">
-        <v>1.071817920368137</v>
+        <v>1.029277655404632</v>
       </c>
       <c r="M13">
-        <v>1.078272768205527</v>
+        <v>1.02884389380557</v>
       </c>
       <c r="N13">
-        <v>1.023801421944396</v>
+        <v>1.010085283822015</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.055110035785042</v>
+        <v>0.9995415637394996</v>
       </c>
       <c r="D14">
-        <v>1.056425296927581</v>
+        <v>1.019817135093554</v>
       </c>
       <c r="E14">
-        <v>1.068564404441185</v>
+        <v>1.015787220081671</v>
       </c>
       <c r="F14">
-        <v>1.075066214981216</v>
+        <v>1.015462481167818</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050687439218246</v>
+        <v>1.04740946764544</v>
       </c>
       <c r="J14">
-        <v>1.061543959091482</v>
+        <v>1.028969107975032</v>
       </c>
       <c r="K14">
-        <v>1.059921934785895</v>
+        <v>1.034391254034258</v>
       </c>
       <c r="L14">
-        <v>1.072018432287136</v>
+        <v>1.030434016633768</v>
       </c>
       <c r="M14">
-        <v>1.078497855912902</v>
+        <v>1.030115166901902</v>
       </c>
       <c r="N14">
-        <v>1.023862551009586</v>
+        <v>1.010465332831998</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.055250401016062</v>
+        <v>1.000377763764636</v>
       </c>
       <c r="D15">
-        <v>1.056536842538523</v>
+        <v>1.020475506127257</v>
       </c>
       <c r="E15">
-        <v>1.068707228070839</v>
+        <v>1.016597251221246</v>
       </c>
       <c r="F15">
-        <v>1.075224102166111</v>
+        <v>1.01634433584722</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050738611584516</v>
+        <v>1.047777187909854</v>
       </c>
       <c r="J15">
-        <v>1.061647370067322</v>
+        <v>1.029583841945983</v>
       </c>
       <c r="K15">
-        <v>1.060014017972808</v>
+        <v>1.034951503522917</v>
       </c>
       <c r="L15">
-        <v>1.072141942341461</v>
+        <v>1.031142583431238</v>
       </c>
       <c r="M15">
-        <v>1.078636514327112</v>
+        <v>1.030894213519795</v>
       </c>
       <c r="N15">
-        <v>1.023900187317574</v>
+        <v>1.010698139026969</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.056066958382333</v>
+        <v>1.005176621841473</v>
       </c>
       <c r="D16">
-        <v>1.057185700335952</v>
+        <v>1.024255741067437</v>
       </c>
       <c r="E16">
-        <v>1.069538237849324</v>
+        <v>1.021248581826339</v>
       </c>
       <c r="F16">
-        <v>1.076142875446971</v>
+        <v>1.021408434202301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05103575185371</v>
+        <v>1.049883387077021</v>
       </c>
       <c r="J16">
-        <v>1.062248665085115</v>
+        <v>1.033110216436361</v>
       </c>
       <c r="K16">
-        <v>1.060549372709686</v>
+        <v>1.038165004953683</v>
       </c>
       <c r="L16">
-        <v>1.072860339744207</v>
+        <v>1.035208916539937</v>
       </c>
       <c r="M16">
-        <v>1.079443179952062</v>
+        <v>1.035366044356552</v>
       </c>
       <c r="N16">
-        <v>1.024118830645252</v>
+        <v>1.012033058085849</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056578789827147</v>
+        <v>1.008129033196973</v>
       </c>
       <c r="D17">
-        <v>1.057592374698114</v>
+        <v>1.026583036177213</v>
       </c>
       <c r="E17">
-        <v>1.070059260986899</v>
+        <v>1.02411249645418</v>
       </c>
       <c r="F17">
-        <v>1.076719027586864</v>
+        <v>1.024526833545346</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05122152093696</v>
+        <v>1.05117553502862</v>
       </c>
       <c r="J17">
-        <v>1.062625314947135</v>
+        <v>1.035278369413041</v>
       </c>
       <c r="K17">
-        <v>1.060884652792968</v>
+        <v>1.040140487609968</v>
       </c>
       <c r="L17">
-        <v>1.073310548471345</v>
+        <v>1.037710554536659</v>
       </c>
       <c r="M17">
-        <v>1.079948843959599</v>
+        <v>1.038118063856661</v>
       </c>
       <c r="N17">
-        <v>1.024255614293931</v>
+        <v>1.012853293359312</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056877199599829</v>
+        <v>1.009831157645091</v>
       </c>
       <c r="D18">
-        <v>1.0578294606545</v>
+        <v>1.02792529407247</v>
       </c>
       <c r="E18">
-        <v>1.070363077442127</v>
+        <v>1.025764394550517</v>
       </c>
       <c r="F18">
-        <v>1.077055027927091</v>
+        <v>1.026325650960527</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051329654470964</v>
+        <v>1.051919148734964</v>
       </c>
       <c r="J18">
-        <v>1.062844819917804</v>
+        <v>1.036527832405721</v>
       </c>
       <c r="K18">
-        <v>1.061080024708867</v>
+        <v>1.04127880270232</v>
       </c>
       <c r="L18">
-        <v>1.0735729966404</v>
+        <v>1.03915274214102</v>
       </c>
       <c r="M18">
-        <v>1.080243669770158</v>
+        <v>1.039704931629956</v>
       </c>
       <c r="N18">
-        <v>1.024335266574813</v>
+        <v>1.013325774894295</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056978927248476</v>
+        <v>1.010408228944352</v>
       </c>
       <c r="D19">
-        <v>1.057910280535986</v>
+        <v>1.028380445251563</v>
       </c>
       <c r="E19">
-        <v>1.070466656306894</v>
+        <v>1.026324570277857</v>
       </c>
       <c r="F19">
-        <v>1.077169585446985</v>
+        <v>1.026935672284053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051366487549758</v>
+        <v>1.052171027622123</v>
       </c>
       <c r="J19">
-        <v>1.062919633581918</v>
+        <v>1.036951347516613</v>
       </c>
       <c r="K19">
-        <v>1.061146609140005</v>
+        <v>1.04166462311551</v>
       </c>
       <c r="L19">
-        <v>1.073662459215283</v>
+        <v>1.039641675490606</v>
       </c>
       <c r="M19">
-        <v>1.080344177646078</v>
+        <v>1.040242972292496</v>
       </c>
       <c r="N19">
-        <v>1.024362403712006</v>
+        <v>1.013485890273292</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.05652388893857</v>
+        <v>1.007814351368425</v>
       </c>
       <c r="D20">
-        <v>1.057548754859414</v>
+        <v>1.026334926672718</v>
       </c>
       <c r="E20">
-        <v>1.070003369226071</v>
+        <v>1.023807164068947</v>
       </c>
       <c r="F20">
-        <v>1.076657218107465</v>
+        <v>1.024194356050138</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051201612695893</v>
+        <v>1.051037950142779</v>
       </c>
       <c r="J20">
-        <v>1.062584923510749</v>
+        <v>1.035047331131258</v>
       </c>
       <c r="K20">
-        <v>1.060848700224049</v>
+        <v>1.039929992163097</v>
       </c>
       <c r="L20">
-        <v>1.073262260985069</v>
+        <v>1.037443923703448</v>
       </c>
       <c r="M20">
-        <v>1.079894603390952</v>
+        <v>1.037824711973775</v>
       </c>
       <c r="N20">
-        <v>1.024240952294683</v>
+        <v>1.012765909956192</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.055042941884062</v>
+        <v>0.9991406723675532</v>
       </c>
       <c r="D21">
-        <v>1.056371977879655</v>
+        <v>1.019501534478487</v>
       </c>
       <c r="E21">
-        <v>1.068496138108687</v>
+        <v>1.015398922949053</v>
       </c>
       <c r="F21">
-        <v>1.074990750691776</v>
+        <v>1.015039760337147</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050662969384295</v>
+        <v>1.047233102357539</v>
       </c>
       <c r="J21">
-        <v>1.06149452410382</v>
+        <v>1.028674365704019</v>
       </c>
       <c r="K21">
-        <v>1.059877913681352</v>
+        <v>1.034122629462673</v>
       </c>
       <c r="L21">
-        <v>1.071959393190221</v>
+        <v>1.030094315116343</v>
       </c>
       <c r="M21">
-        <v>1.078431578525408</v>
+        <v>1.029741694051598</v>
       </c>
       <c r="N21">
-        <v>1.023844555718654</v>
+        <v>1.010353701453189</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.054110577891894</v>
+        <v>0.9934881448110567</v>
       </c>
       <c r="D22">
-        <v>1.055630983356001</v>
+        <v>1.015054132430435</v>
       </c>
       <c r="E22">
-        <v>1.067547659011839</v>
+        <v>1.009927285815033</v>
       </c>
       <c r="F22">
-        <v>1.073942401556186</v>
+        <v>1.009083389669714</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050322283965019</v>
+        <v>1.044741552744435</v>
       </c>
       <c r="J22">
-        <v>1.060807221255273</v>
+        <v>1.024516834526265</v>
       </c>
       <c r="K22">
-        <v>1.059265795029911</v>
+        <v>1.030333148942345</v>
       </c>
       <c r="L22">
-        <v>1.071138836901956</v>
+        <v>1.025304613546892</v>
       </c>
       <c r="M22">
-        <v>1.077510605257875</v>
+        <v>1.024477025231997</v>
       </c>
       <c r="N22">
-        <v>1.023594133387215</v>
+        <v>1.008778480813515</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054604960430724</v>
+        <v>0.9965045204426468</v>
       </c>
       <c r="D23">
-        <v>1.056023904786418</v>
+        <v>1.017426818425592</v>
       </c>
       <c r="E23">
-        <v>1.068050545423278</v>
+        <v>1.012846364670956</v>
       </c>
       <c r="F23">
-        <v>1.07449820767419</v>
+        <v>1.012260995480099</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050503079863899</v>
+        <v>1.046072225461841</v>
       </c>
       <c r="J23">
-        <v>1.061171738369132</v>
+        <v>1.026735812861496</v>
       </c>
       <c r="K23">
-        <v>1.059590457402811</v>
+        <v>1.032355769218414</v>
       </c>
       <c r="L23">
-        <v>1.071573962756176</v>
+        <v>1.027860537402836</v>
       </c>
       <c r="M23">
-        <v>1.077998937683806</v>
+        <v>1.027286131907361</v>
       </c>
       <c r="N23">
-        <v>1.023727000441111</v>
+        <v>1.009619345826755</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056548696697113</v>
+        <v>1.007956604044008</v>
       </c>
       <c r="D24">
-        <v>1.057568465158543</v>
+        <v>1.026447083547239</v>
       </c>
       <c r="E24">
-        <v>1.070028624577134</v>
+        <v>1.023945187846387</v>
       </c>
       <c r="F24">
-        <v>1.076685147334037</v>
+        <v>1.024344650204317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051210609060243</v>
+        <v>1.051100149873094</v>
       </c>
       <c r="J24">
-        <v>1.062603175244511</v>
+        <v>1.03515177416335</v>
       </c>
       <c r="K24">
-        <v>1.060864946233247</v>
+        <v>1.040025148974585</v>
       </c>
       <c r="L24">
-        <v>1.073284080487813</v>
+        <v>1.037564454993148</v>
       </c>
       <c r="M24">
-        <v>1.079919112737961</v>
+        <v>1.037957321551661</v>
       </c>
       <c r="N24">
-        <v>1.024247577826694</v>
+        <v>1.012805413082703</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058799101661476</v>
+        <v>1.020469999979252</v>
       </c>
       <c r="D25">
-        <v>1.05935613375236</v>
+        <v>1.036323024517762</v>
       </c>
       <c r="E25">
-        <v>1.072320659272103</v>
+        <v>1.036102740051246</v>
       </c>
       <c r="F25">
-        <v>1.079220656594819</v>
+        <v>1.037586184916793</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052022939450397</v>
+        <v>1.05654278615402</v>
       </c>
       <c r="J25">
-        <v>1.064256896369458</v>
+        <v>1.044327573376497</v>
       </c>
       <c r="K25">
-        <v>1.062336427608576</v>
+        <v>1.048382475736639</v>
       </c>
       <c r="L25">
-        <v>1.075262670785215</v>
+        <v>1.048165315229821</v>
       </c>
       <c r="M25">
-        <v>1.082142701047517</v>
+        <v>1.049627755025854</v>
       </c>
       <c r="N25">
-        <v>1.024846532567328</v>
+        <v>1.016271224181564</v>
       </c>
     </row>
   </sheetData>
